--- a/other_result/BH_extend_iteration.xlsx
+++ b/other_result/BH_extend_iteration.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\智能化学合成\论文\新数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{506D4B18-040D-4B27-92AB-55D00D946CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296CF318-8CCF-4F03-9306-8DB5246A8853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{0FCA9CE7-F611-4830-B5C1-B5218D2C4610}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0FCA9CE7-F611-4830-B5C1-B5218D2C4610}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>center</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,252 +135,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="reborn_BH"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>100</v>
-          </cell>
-          <cell r="K2">
-            <v>0.60012775791168449</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>200</v>
-          </cell>
-          <cell r="K3">
-            <v>0.77405750589923006</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>300</v>
-          </cell>
-          <cell r="K4">
-            <v>0.82379930634295051</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>400</v>
-          </cell>
-          <cell r="K5">
-            <v>0.83974965494697251</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>500</v>
-          </cell>
-          <cell r="K6">
-            <v>0.84931390552796104</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>600</v>
-          </cell>
-          <cell r="K7">
-            <v>0.86408445011194202</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>700</v>
-          </cell>
-          <cell r="K8">
-            <v>0.87674267568524544</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>800</v>
-          </cell>
-          <cell r="K9">
-            <v>0.89422570111052602</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>900</v>
-          </cell>
-          <cell r="K10">
-            <v>0.90405926356505195</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>1000</v>
-          </cell>
-          <cell r="K11">
-            <v>0.91332059125996801</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>1100</v>
-          </cell>
-          <cell r="K12">
-            <v>0.91903142395305204</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1200</v>
-          </cell>
-          <cell r="K13">
-            <v>0.92782211430836159</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>1300</v>
-          </cell>
-          <cell r="K14">
-            <v>0.92817653388534693</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>1400</v>
-          </cell>
-          <cell r="K15">
-            <v>0.93140935664421853</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>1500</v>
-          </cell>
-          <cell r="K16">
-            <v>0.93366000365178747</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>1600</v>
-          </cell>
-          <cell r="K17">
-            <v>0.936038942009081</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>1700</v>
-          </cell>
-          <cell r="K18">
-            <v>0.93977480641454803</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>1800</v>
-          </cell>
-          <cell r="K19">
-            <v>0.94122980182845495</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>1900</v>
-          </cell>
-          <cell r="K20">
-            <v>0.94305001486306295</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>2000</v>
-          </cell>
-          <cell r="K21">
-            <v>0.94554225847557594</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>2100</v>
-          </cell>
-          <cell r="K22">
-            <v>0.946600284079544</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>2200</v>
-          </cell>
-          <cell r="K23">
-            <v>0.9496083140609155</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>2300</v>
-          </cell>
-          <cell r="K24">
-            <v>0.95386437326930151</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>2400</v>
-          </cell>
-          <cell r="K25">
-            <v>0.95332109446213753</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>2500</v>
-          </cell>
-          <cell r="K26">
-            <v>0.95671615169206303</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>2600</v>
-          </cell>
-          <cell r="K27">
-            <v>0.95887696651395649</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>2700</v>
-          </cell>
-          <cell r="K28">
-            <v>0.96038864287210846</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>2800</v>
-          </cell>
-          <cell r="K29">
-            <v>0.95789666911243554</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -527,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA896A3-3729-4F02-8A99-BBABB43B9D43}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="N21" sqref="N2:N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22</v>
       </c>
@@ -758,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:M29" si="0">AVERAGE(C2,F2)</f>
+        <f t="shared" ref="K2:M21" si="0">AVERAGE(C2,F2)</f>
         <v>0.60012775791168449</v>
       </c>
       <c r="L2">
@@ -769,12 +524,8 @@
         <f t="shared" si="0"/>
         <v>17.241223113545352</v>
       </c>
-      <c r="N2">
-        <f>K3-K2</f>
-        <v>0.17392974798754557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>28</v>
       </c>
@@ -817,12 +568,8 @@
         <f t="shared" si="0"/>
         <v>12.960963759804001</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N29" si="1">K4-K3</f>
-        <v>4.9741800443720452E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>28</v>
       </c>
@@ -865,12 +612,8 @@
         <f t="shared" si="0"/>
         <v>11.4468487977558</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>1.5950348604022002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>36</v>
       </c>
@@ -913,12 +656,8 @@
         <f t="shared" si="0"/>
         <v>10.908171187496599</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>9.5642505809885314E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34</v>
       </c>
@@ -961,12 +700,8 @@
         <f t="shared" si="0"/>
         <v>10.59434810594635</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>1.4770544583980971E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -1009,12 +744,8 @@
         <f t="shared" si="0"/>
         <v>10.054884096094099</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>1.2658225573303428E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>34</v>
       </c>
@@ -1057,12 +788,8 @@
         <f t="shared" si="0"/>
         <v>9.545925978399886</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>1.7483025425280574E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32</v>
       </c>
@@ -1105,12 +832,8 @@
         <f t="shared" si="0"/>
         <v>8.8580915362441743</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>9.8335624545259348E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>36</v>
       </c>
@@ -1153,12 +876,8 @@
         <f t="shared" si="0"/>
         <v>8.4402722198968085</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>9.261327694916055E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40</v>
       </c>
@@ -1201,12 +920,8 @@
         <f t="shared" si="0"/>
         <v>8.0167979629274146</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>5.7108326930840336E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34</v>
       </c>
@@ -1249,12 +964,8 @@
         <f t="shared" si="0"/>
         <v>7.7343953307178399</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>8.7906903553095495E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>38</v>
       </c>
@@ -1297,12 +1008,8 @@
         <f t="shared" si="0"/>
         <v>7.3166841647996907</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
-        <v>3.544195769853431E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -1345,12 +1052,8 @@
         <f t="shared" si="0"/>
         <v>7.2941539191689344</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
-        <v>3.2328227588716008E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>32</v>
       </c>
@@ -1393,12 +1096,8 @@
         <f t="shared" si="0"/>
         <v>7.1425683848378352</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>2.25064700756894E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>40</v>
       </c>
@@ -1441,12 +1140,8 @@
         <f t="shared" si="0"/>
         <v>7.0096329611398902</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
-        <v>2.3789383572935252E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>32</v>
       </c>
@@ -1489,12 +1184,8 @@
         <f t="shared" si="0"/>
         <v>6.8435210539713349</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>3.7358644054670265E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>28</v>
       </c>
@@ -1537,12 +1228,8 @@
         <f t="shared" si="0"/>
         <v>6.6326868476289302</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
-        <v>1.4549954139069232E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>34</v>
       </c>
@@ -1585,12 +1272,8 @@
         <f t="shared" si="0"/>
         <v>6.5473780776345398</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="1"/>
-        <v>1.8202130346079981E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32</v>
       </c>
@@ -1633,12 +1316,8 @@
         <f t="shared" si="0"/>
         <v>6.4555286297216847</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="1"/>
-        <v>2.4922436125129899E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>40</v>
       </c>
@@ -1680,394 +1359,6 @@
       <c r="M21">
         <f t="shared" si="0"/>
         <v>6.3214526183027848</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="1"/>
-        <v>1.0580256039680602E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>2100</v>
-      </c>
-      <c r="C22">
-        <v>0.94642739303543</v>
-      </c>
-      <c r="D22">
-        <v>4.2328553399753801</v>
-      </c>
-      <c r="E22">
-        <v>6.2900684562882798</v>
-      </c>
-      <c r="F22">
-        <v>0.946773175123658</v>
-      </c>
-      <c r="G22">
-        <v>4.2218267159495397</v>
-      </c>
-      <c r="H22">
-        <v>6.2697361064062003</v>
-      </c>
-      <c r="I22">
-        <v>119</v>
-      </c>
-      <c r="J22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>0.946600284079544</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>4.2273410279624599</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
-        <v>6.2799022813472405</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
-        <v>3.0080299813715072E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>2200</v>
-      </c>
-      <c r="C23">
-        <v>0.9493965450331</v>
-      </c>
-      <c r="D23">
-        <v>4.1895356462304196</v>
-      </c>
-      <c r="E23">
-        <v>6.1661943515728401</v>
-      </c>
-      <c r="F23">
-        <v>0.949820083088731</v>
-      </c>
-      <c r="G23">
-        <v>4.1743152087611097</v>
-      </c>
-      <c r="H23">
-        <v>6.1403353899482198</v>
-      </c>
-      <c r="I23">
-        <v>119</v>
-      </c>
-      <c r="J23" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>0.9496083140609155</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>4.1819254274957647</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
-        <v>6.1532648707605304</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="1"/>
-        <v>4.2560592083860094E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>2300</v>
-      </c>
-      <c r="C24">
-        <v>0.95371017623363596</v>
-      </c>
-      <c r="D24">
-        <v>4.0329001261043</v>
-      </c>
-      <c r="E24">
-        <v>5.9442110319848203</v>
-      </c>
-      <c r="F24">
-        <v>0.95401857030496695</v>
-      </c>
-      <c r="G24">
-        <v>4.0113064342667304</v>
-      </c>
-      <c r="H24">
-        <v>5.9243770518198904</v>
-      </c>
-      <c r="I24">
-        <v>119</v>
-      </c>
-      <c r="J24" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>0.95386437326930151</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>4.0221032801855152</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>5.9342940419023549</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="1"/>
-        <v>-5.4327880716398269E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>34</v>
-      </c>
-      <c r="B25">
-        <v>2400</v>
-      </c>
-      <c r="C25">
-        <v>0.95307926447319702</v>
-      </c>
-      <c r="D25">
-        <v>4.0273219625215901</v>
-      </c>
-      <c r="E25">
-        <v>6.0047511044423398</v>
-      </c>
-      <c r="F25">
-        <v>0.95356292445107804</v>
-      </c>
-      <c r="G25">
-        <v>4.0071977667735501</v>
-      </c>
-      <c r="H25">
-        <v>5.9737223826369803</v>
-      </c>
-      <c r="I25">
-        <v>119</v>
-      </c>
-      <c r="J25" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>0.95332109446213753</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>4.0172598646475706</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
-        <v>5.9892367435396601</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
-        <v>3.3950572299255022E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>38</v>
-      </c>
-      <c r="B26">
-        <v>2500</v>
-      </c>
-      <c r="C26">
-        <v>0.95645029323132802</v>
-      </c>
-      <c r="D26">
-        <v>3.9524215345628302</v>
-      </c>
-      <c r="E26">
-        <v>5.8643602530553203</v>
-      </c>
-      <c r="F26">
-        <v>0.95698201015279805</v>
-      </c>
-      <c r="G26">
-        <v>3.8983064095051199</v>
-      </c>
-      <c r="H26">
-        <v>5.8284500695140897</v>
-      </c>
-      <c r="I26">
-        <v>119</v>
-      </c>
-      <c r="J26" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>0.95671615169206303</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>3.925363972033975</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
-        <v>5.8464051612847054</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="1"/>
-        <v>2.1608148218934531E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>2600</v>
-      </c>
-      <c r="C27">
-        <v>0.95869576773770204</v>
-      </c>
-      <c r="D27">
-        <v>3.7857863492689701</v>
-      </c>
-      <c r="E27">
-        <v>5.7368845596374296</v>
-      </c>
-      <c r="F27">
-        <v>0.95905816529021104</v>
-      </c>
-      <c r="G27">
-        <v>3.7288456207544201</v>
-      </c>
-      <c r="H27">
-        <v>5.7116618014439204</v>
-      </c>
-      <c r="I27">
-        <v>136</v>
-      </c>
-      <c r="J27" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>0.95887696651395649</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>3.7573159850116951</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
-        <v>5.724273180540675</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
-        <v>1.5116763581519699E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <v>2700</v>
-      </c>
-      <c r="C28">
-        <v>0.96028280476363403</v>
-      </c>
-      <c r="D28">
-        <v>3.6869122582437002</v>
-      </c>
-      <c r="E28">
-        <v>5.6361864421576398</v>
-      </c>
-      <c r="F28">
-        <v>0.96049448098058299</v>
-      </c>
-      <c r="G28">
-        <v>3.6477964645980498</v>
-      </c>
-      <c r="H28">
-        <v>5.6211471061931002</v>
-      </c>
-      <c r="I28">
-        <v>128</v>
-      </c>
-      <c r="J28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>0.96038864287210846</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>3.667354361420875</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
-        <v>5.62866677417537</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
-        <v>-2.4919737596729163E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>42</v>
-      </c>
-      <c r="B29">
-        <v>2800</v>
-      </c>
-      <c r="C29">
-        <v>0.957349910391325</v>
-      </c>
-      <c r="D29">
-        <v>3.7533273489111401</v>
-      </c>
-      <c r="E29">
-        <v>5.73633981411637</v>
-      </c>
-      <c r="F29">
-        <v>0.95844342783354597</v>
-      </c>
-      <c r="G29">
-        <v>3.6725673845331599</v>
-      </c>
-      <c r="H29">
-        <v>5.6623245073594601</v>
-      </c>
-      <c r="I29">
-        <v>123</v>
-      </c>
-      <c r="J29" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>0.95789666911243554</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>3.7129473667221502</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
-        <v>5.6993321607379155</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
-        <v>-0.95789666911243554</v>
       </c>
     </row>
   </sheetData>
